--- a/branches/change-IG-path-in-IG.ini-file/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
+++ b/branches/change-IG-path-in-IG.ini-file/ValueSet-vs-reason-for-assessment-or-test-not-performed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T07:39:57+00:00</t>
+    <t>2023-02-16T08:15:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,76 +102,52 @@
     <t>Concept</t>
   </si>
   <si>
+    <t>77386006</t>
+  </si>
+  <si>
+    <t>Currently pregnant</t>
+  </si>
+  <si>
+    <t>428450006</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>171111007</t>
+  </si>
+  <si>
+    <t>Results not available</t>
+  </si>
+  <si>
+    <t>266721009</t>
+  </si>
+  <si>
+    <t>Absent response to treatment</t>
+  </si>
+  <si>
+    <t>170564007</t>
+  </si>
+  <si>
+    <t>Chronic disease - treatment changed (finding)</t>
+  </si>
+  <si>
+    <t>413712001</t>
+  </si>
+  <si>
+    <t>Breastfeeding (mother) (observable entity)</t>
+  </si>
+  <si>
     <t>315124004</t>
   </si>
   <si>
-    <t>Baseline Viral Load</t>
-  </si>
-  <si>
-    <t>182838006</t>
-  </si>
-  <si>
-    <t>Change regimen</t>
-  </si>
-  <si>
-    <t>73697001</t>
-  </si>
-  <si>
-    <t>Clinical failure</t>
-  </si>
-  <si>
-    <t>304539005</t>
-  </si>
-  <si>
-    <t>Confirmation of treatment failure</t>
-  </si>
-  <si>
-    <t>413712001</t>
-  </si>
-  <si>
-    <t>Currently breastfeeding child</t>
-  </si>
-  <si>
-    <t>77386006</t>
-  </si>
-  <si>
-    <t>Currently pregnant</t>
+    <t>Baseline Viral Load / Routine Viral Load</t>
   </si>
   <si>
     <t>2528003</t>
   </si>
   <si>
     <t>Persistent low-Level viraemia</t>
-  </si>
-  <si>
-    <t>30058000</t>
-  </si>
-  <si>
-    <t>Recency Assay</t>
-  </si>
-  <si>
-    <t>395007004</t>
-  </si>
-  <si>
-    <t>Regimen failure</t>
-  </si>
-  <si>
-    <t>428450006</t>
-  </si>
-  <si>
-    <t>Repeat</t>
-  </si>
-  <si>
-    <t>171111007</t>
-  </si>
-  <si>
-    <t>Results not available</t>
-  </si>
-  <si>
-    <t>373113001</t>
-  </si>
-  <si>
-    <t>Routine Viral Load</t>
   </si>
   <si>
     <t>441510007</t>
@@ -489,7 +465,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -632,47 +608,15 @@
         <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
